--- a/xlsx/中国语言_intext.xlsx
+++ b/xlsx/中国语言_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1066">
   <si>
     <t>中国语言</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_中文_中国语言</t>
+    <t>政策_政策_维基百科_中文_中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中華民國歷史</t>
+    <t>中华民国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國文化史</t>
+    <t>中国文化史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8F%B2%E5%89%8D%E6%96%87%E5%8C%96</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>中國時區</t>
+    <t>中国时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B0%94%E5%80%99</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%94%BF%E6%B2%BB%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國政治史</t>
+    <t>中国政治史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B3%95%E7%B3%BB</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B3%95%E5%88%B6%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國法制史</t>
+    <t>中国法制史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%90%8F%E6%B2%BB%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國吏治史</t>
+    <t>中国吏治史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8F%A4%E4%BB%A3%E8%81%8C%E5%AE%98</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B0%8D%E5%A4%96%E9%97%9C%E4%BF%82%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國對外關係史</t>
+    <t>中国对外关系史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>中國建築</t>
+    <t>中国建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%A1%93%E6%95%B8</t>
   </si>
   <si>
-    <t>中國術數</t>
+    <t>中国术数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%AD%A6%E6%9C%AF</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>華語電影</t>
+    <t>华语电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>Template talk-中國</t>
+    <t>Template talk-中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>繁體字</t>
+    <t>繁体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>語言權利</t>
+    <t>语言权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -527,43 +527,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>漢語族</t>
+    <t>汉语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>官話</t>
+    <t>官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩語</t>
+    <t>闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
+    <t>赣语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>客家話</t>
+    <t>客家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%BD%E8%AF%AD</t>
@@ -575,37 +569,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>晉語</t>
+    <t>晋语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E</t>
   </si>
   <si>
-    <t>吳語</t>
+    <t>吴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>湘語</t>
+    <t>湘语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣西平話</t>
+    <t>广西平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E5%9C%9F%E8%A9%B1</t>
   </si>
   <si>
-    <t>粵北土話</t>
+    <t>粤北土话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E5%8D%97%E5%9C%9F%E8%AF%9D</t>
@@ -623,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E7%B7%AC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>藏緬語族</t>
+    <t>藏缅语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>白語</t>
+    <t>白语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%8B%89%E8%92%82%E8%AF%AD%E6%94%AF</t>
@@ -641,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F-%E9%87%91%E7%91%99%E7%88%BE%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>藏-金瑙爾語支</t>
+    <t>藏-金瑙尔语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>藏語支</t>
+    <t>藏语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%96%9C%E9%A9%AC%E6%8B%89%E9%9B%85%E8%AF%AD%E6%94%AF</t>
@@ -665,31 +656,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%BD%9D%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>緬彝語群</t>
+    <t>缅彝语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>緬語支</t>
+    <t>缅语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>彝語支</t>
+    <t>彝语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%A5%BF%E8%AA%9E</t>
   </si>
   <si>
-    <t>納西語</t>
+    <t>纳西语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%BC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>塔尼語支</t>
+    <t>塔尼语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E9%A1%B9%E8%AF%AD</t>
@@ -701,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8C%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>羌語支</t>
+    <t>羌语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BB%92%E8%AF%AD%E6%94%AF</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>土家語</t>
+    <t>土家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E8%8B%8F%E8%AF%AD%E6%94%AF</t>
@@ -737,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E4%BE%97%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>壯侗語系</t>
+    <t>壮侗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E8%AA%9E</t>
   </si>
   <si>
-    <t>黎語</t>
+    <t>黎语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A1%E9%9A%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>仡隆語</t>
+    <t>仡隆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A1%E5%A4%AE%E8%AF%AD%E6%97%8F</t>
@@ -761,31 +752,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%97%E5%8F%B0%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>侗台語族</t>
+    <t>侗台语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E9%AB%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>臨高語</t>
+    <t>临高语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>台語支</t>
+    <t>台语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%97%E6%B0%B4%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>侗水語支</t>
+    <t>侗水语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%A4%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>苗瑤語系</t>
+    <t>苗瑶语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E8%AF%AD%E6%94%AF</t>
@@ -839,9 +830,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南亞語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E5%BE%B7%E6%98%82%E8%AF%AD%E6%94%AF</t>
   </si>
   <si>
@@ -863,19 +851,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>京語</t>
+    <t>京语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>馬來-波利尼西亞語族</t>
+    <t>马来-波利尼西亚语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%AF%AD%E7%BE%A4</t>
@@ -899,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%B8%B9%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>巴丹語群</t>
+    <t>巴丹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>達悟語</t>
+    <t>达悟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B1%B1%E8%AF%AD</t>
@@ -917,9 +902,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>印歐語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -959,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E5%8B%92%E5%BA%AB%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>色勒庫爾語</t>
+    <t>色勒库尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%BD%95%E8%AF%AD</t>
@@ -983,19 +965,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>阿爾泰語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>突厥語族</t>
+    <t>突厥语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>蒙古語族</t>
+    <t>蒙古语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%EF%BC%8D%E9%80%9A%E5%8F%A4%E6%96%AF%E8%AF%AD%E6%97%8F</t>
@@ -1007,43 +986,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B1%AF%E8%A9%B1</t>
   </si>
   <si>
-    <t>五屯話</t>
+    <t>五屯话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>誒話</t>
+    <t>诶话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土語</t>
+    <t>澳门土语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國手語</t>
+    <t>中国手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港手語</t>
+    <t>香港手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8F%A4%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>上古漢語</t>
+    <t>上古汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B7%E6%9C%9D</t>
@@ -1055,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古漢語</t>
+    <t>中古汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>古藏語</t>
+    <t>古藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E9%9B%84%E8%AF%AD</t>
@@ -1085,25 +1061,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B6%BB%E8%AA%9E</t>
   </si>
   <si>
-    <t>回鶻語</t>
+    <t>回鹘语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%90%88%E5%8F%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>察合台語</t>
+    <t>察合台语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>契丹語</t>
+    <t>契丹语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E8%92%99%E5%8F%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古蒙古語</t>
+    <t>中古蒙古语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%8B%89%E7%89%B9%E8%AF%AD</t>
@@ -1115,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>女真語</t>
+    <t>女真语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E7%81%AB%E7%BD%97%E8%AF%AD</t>
@@ -1127,37 +1103,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E9%A4%98%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶餘語系</t>
+    <t>扶馀语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E9%BA%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>高句麗語</t>
+    <t>高句丽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E9%A4%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>扶餘語</t>
+    <t>扶馀语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>百濟語</t>
+    <t>百济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>民族語</t>
+    <t>民族语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>漢藏語列表</t>
+    <t>汉藏语列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E5%88%97%E8%A1%A8</t>
@@ -1175,25 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>中國語言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>汉语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京官話</t>
+    <t>北京官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E5%AE%98%E8%AF%9D</t>
@@ -1217,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>中原官話</t>
+    <t>中原官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%93%B6%E5%AE%98%E8%AF%9D</t>
@@ -1229,21 +1199,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>江淮官話</t>
+    <t>江淮官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>西南官話</t>
+    <t>西南官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E8%AF%AD</t>
   </si>
   <si>
-    <t>晋语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E5%B7%9E%E7%89%87</t>
   </si>
   <si>
@@ -1253,19 +1220,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%A2%81%E7%89%87</t>
   </si>
   <si>
-    <t>呂梁片</t>
+    <t>吕梁片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BB%A8%E7%89%87</t>
   </si>
   <si>
-    <t>上黨片</t>
+    <t>上党片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%87%BA%E7%89%87</t>
   </si>
   <si>
-    <t>五臺片</t>
+    <t>五台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AF%E6%96%B0%E7%89%87</t>
@@ -1283,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%91%BC%E7%89%87</t>
   </si>
   <si>
-    <t>張呼片</t>
+    <t>张呼片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E5%BB%B6%E7%89%87</t>
@@ -1295,25 +1262,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E8%AF%AD</t>
   </si>
   <si>
-    <t>闽语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8C%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩北語</t>
+    <t>闽北语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E4%B8%AD%E8%AF%AD</t>
@@ -1325,19 +1289,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%86%E4%BB%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>莆仙語</t>
+    <t>莆仙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E5%B0%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>邵將語</t>
+    <t>邵将语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E9%9B%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>瓊雷話</t>
+    <t>琼雷话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E6%96%87%E7%89%87</t>
@@ -1361,9 +1325,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
   </si>
   <si>
-    <t>吴语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%B9%96%E7%89%87</t>
   </si>
   <si>
@@ -1391,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BA%97%E7%89%87</t>
   </si>
   <si>
-    <t>上麗片</t>
+    <t>上丽片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%B7%9E%E7%89%87</t>
@@ -1421,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E7%80%8F%E7%89%87</t>
   </si>
   <si>
-    <t>宜瀏片</t>
+    <t>宜浏片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B6%E7%89%87</t>
@@ -1433,13 +1394,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%AB%E5%BB%A3%E7%89%87</t>
   </si>
   <si>
-    <t>撫廣片</t>
+    <t>抚广片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E5%BC%8B%E7%89%87</t>
   </si>
   <si>
-    <t>鷹弋片</t>
+    <t>鹰弋片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E7%89%87</t>
@@ -1451,19 +1412,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%92%E8%B3%87%E7%89%87</t>
   </si>
   <si>
-    <t>耒資片</t>
+    <t>耒资片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%B6%BD%E7%89%87</t>
   </si>
   <si>
-    <t>懷嶽片</t>
+    <t>怀岳片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E7%B6%8F%E7%89%87</t>
   </si>
   <si>
-    <t>洞綏片</t>
+    <t>洞绥片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AF%AD</t>
@@ -1475,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8F%B0%E7%89%87</t>
   </si>
   <si>
-    <t>粵台片</t>
+    <t>粤台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E4%B8%AD%E7%89%87</t>
   </si>
   <si>
-    <t>粵中片</t>
+    <t>粤中片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%80%E5%B7%9E%E7%89%87</t>
@@ -1493,43 +1454,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E9%BE%8D%E7%89%87</t>
   </si>
   <si>
-    <t>寧龍片</t>
+    <t>宁龙片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%BC%93%E7%89%87</t>
   </si>
   <si>
-    <t>銅鼓片</t>
+    <t>铜鼓片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E7%89%87</t>
   </si>
   <si>
-    <t>粵北片</t>
+    <t>粤北片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%A5%BF%E7%89%87</t>
   </si>
   <si>
-    <t>粵西片</t>
+    <t>粤西片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E5%B9%B3%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>饒平客家語</t>
+    <t>饶平客家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%B5%B7%E7%89%87</t>
   </si>
   <si>
-    <t>粵海片</t>
+    <t>粤海片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%9E%E5%AF%B6%E7%89%87</t>
   </si>
   <si>
-    <t>莞寶片</t>
+    <t>莞宝片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BE%E6%BC%8F%E7%89%87</t>
@@ -1583,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>蔡家話</t>
+    <t>蔡家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%A6%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>富馬話</t>
+    <t>富马话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%9C%80%E8%AF%AD</t>
@@ -1601,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%85%92%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢兒言語</t>
+    <t>汉儿言语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚語</t>
+    <t>楚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E6%97%8F</t>
@@ -1661,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%A4%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>布央語</t>
+    <t>布央语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A0%87%E8%AF%AD</t>
@@ -1673,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%BD%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>木佬語</t>
+    <t>木佬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BF%E8%AF%AD</t>
@@ -1691,9 +1652,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%97%E6%B0%B4%E8%AF%AD%E6%94%AF</t>
   </si>
   <si>
-    <t>侗水语支</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%97%E8%AF%AD</t>
   </si>
   <si>
@@ -1727,13 +1685,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%AF%E5%83%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>佯僙語</t>
+    <t>佯僙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E6%B3%B0%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>壯泰語支</t>
+    <t>壮泰语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E8%AF%AD</t>
@@ -1757,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>儂語</t>
+    <t>侬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%AD</t>
@@ -1775,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%A3%E4%BB%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>傣仂語</t>
+    <t>傣仂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%87%91%E5%82%A3%E8%AF%AD</t>
@@ -1805,21 +1763,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E8%AF%AD</t>
   </si>
   <si>
-    <t>黎语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8C%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>加茂語</t>
+    <t>加茂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E7%BC%85%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>藏缅语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F-%E5%96%9C%E9%A9%AC%E6%8B%89%E9%9B%85%E8%AF%AD%E7%BE%A4</t>
   </si>
   <si>
@@ -1835,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E8%97%8F%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>衛藏方言</t>
+    <t>卫藏方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%96%B9%E8%A8%80</t>
@@ -1865,9 +1817,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8C%E8%AF%AD%E6%94%AF</t>
   </si>
   <si>
-    <t>羌语支</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BB%92%E8%AF%AD</t>
   </si>
   <si>
@@ -1895,9 +1844,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%AE%B6%E8%AF%AD</t>
   </si>
   <si>
-    <t>土家语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%B1%B3%E8%AF%AD</t>
   </si>
   <si>
@@ -1919,25 +1865,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E8%98%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>爾蘇語</t>
+    <t>尔苏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%A5%BF%E8%AF%AD</t>
   </si>
   <si>
-    <t>纳西语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%9C%A8%E4%BE%9D%E8%AA%9E</t>
   </si>
   <si>
-    <t>納木依語</t>
+    <t>纳木依语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%88%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>史興語</t>
+    <t>史兴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AF%AD</t>
@@ -1997,13 +1940,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A5%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉祜語</t>
+    <t>拉祜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>基諾語</t>
+    <t>基诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%92%E8%8B%8F%E8%AF%AD</t>
@@ -2111,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BE%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇龍語</t>
+    <t>苏龙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E9%83%BD-%E8%BE%BE%E8%AE%A9%E8%AF%AD%E6%94%AF</t>
@@ -2147,9 +2090,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>突厥语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%BE%E5%B0%94%E8%AF%AD</t>
   </si>
   <si>
@@ -2225,13 +2165,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B9%98%E8%AF%AD</t>
   </si>
   <si>
-    <t>回鹘语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%B4%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>回紇語</t>
+    <t>回纥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%99%80</t>
@@ -2243,9 +2180,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>蒙古语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AF%AD</t>
   </si>
   <si>
@@ -2291,9 +2225,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9%E8%AF%AD</t>
   </si>
   <si>
-    <t>契丹语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%9C%E5%8D%91%E8%AF%AD</t>
   </si>
   <si>
@@ -2321,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%B4%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>滿洲語</t>
+    <t>满洲语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E4%BC%AF%E8%AF%AD</t>
@@ -2351,67 +2282,58 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BD%99%EF%BC%8D%E6%96%B0%E7%BD%97%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶余－新罗语系</t>
+    <t>扶馀－新罗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E4%B8%BD%E8%AF%AD</t>
   </si>
   <si>
-    <t>高句丽语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>渤海語</t>
+    <t>渤海语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>马来-波利尼西亚语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E8%BC%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>回輝話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>泰雅語群</t>
+    <t>泰雅语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>排灣語群</t>
+    <t>排湾语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%92%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>鄒語群</t>
+    <t>邹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%87%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>魯凱語</t>
+    <t>鲁凯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -2435,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>佤語</t>
+    <t>佤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%AF%AD</t>
@@ -2453,9 +2375,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E5%8B%92%E5%BA%93%E5%B0%94%E8%AF%AD</t>
   </si>
   <si>
-    <t>色勒库尔语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E9%98%97%E8%AF%AD</t>
   </si>
   <si>
@@ -2537,7 +2456,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E7%94%9F%E8%91%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土生葡語</t>
+    <t>澳门土生葡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B3%BE%E6%B5%9C%E8%8B%B1%E8%AF%AD</t>
@@ -2555,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈奴語</t>
+    <t>匈奴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%A4%B7%E8%AF%AD</t>
@@ -2567,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD%E6%89%8B%E8%AF%AD</t>
@@ -2591,39 +2510,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E9%9B%99%E6%8B%BC%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>漢語雙拼盲文</t>
+    <t>汉语双拼盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>藏語盲文</t>
+    <t>藏语盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E8%B7%A1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>絕跡語言</t>
+    <t>绝迹语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%A6%82%E8%BF%B0</t>
   </si>
   <si>
@@ -2645,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%82%B3%E7%B5%B1%E5%9C%B0%E7%90%86%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>中國傳統地理大區</t>
+    <t>中国传统地理大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2675,13 +2588,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%B3%B6%E5%B6%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華人民共和國島嶼列表</t>
+    <t>中华人民共和国岛屿列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國河流列表</t>
+    <t>中国河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B9%96%E6%B3%8A%E5%88%97%E8%A1%A8</t>
@@ -2831,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%B1%A1%E5%BE%B5</t>
   </si>
   <si>
-    <t>國家象徵</t>
+    <t>国家象征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E5%8B%87%E5%86%9B%E8%BF%9B%E8%A1%8C%E6%9B%B2</t>
@@ -2897,7 +2810,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華人民共和國民主運動</t>
+    <t>中华人民共和国民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E5%86%9B</t>
@@ -2915,7 +2828,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>中華人民共和國法律</t>
+    <t>中华人民共和国法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2927,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%90%8C%E6%80%A7%E6%88%80%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國同性戀史</t>
+    <t>中国同性恋史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8F%B8%E6%B3%95%E4%BD%93%E5%88%B6</t>
@@ -2957,19 +2870,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E7%B1%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>中華人民共和國國籍法</t>
+    <t>中华人民共和国国籍法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%85%B7%E5%88%91%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國酷刑史</t>
+    <t>中国酷刑史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
   </si>
   <si>
-    <t>中華人民共和國經濟史</t>
+    <t>中华人民共和国经济史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
@@ -3041,7 +2954,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>中華人民共和國鐵路運輸</t>
+    <t>中华人民共和国铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%AB%98%E9%80%9F%E9%93%81%E8%B7%AF</t>
@@ -3083,19 +2996,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E9%9B%B6%E5%BE%8C</t>
   </si>
   <si>
-    <t>八零後</t>
+    <t>八零后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%BB%E6%B0%91%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國移民史</t>
+    <t>中国移民史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國民族列表</t>
+    <t>中国民族列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8A%A8%E4%BA%BA%E5%8F%A3</t>
@@ -3131,13 +3044,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%BD%AA%E6%A1%88%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>中華人民共和國罪案問題</t>
+    <t>中华人民共和国罪案问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%9A%84%E8%B2%AA%E6%B1%A1</t>
   </si>
   <si>
-    <t>中國的貪污</t>
+    <t>中国的贪污</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89%E4%B8%8E%E4%B8%AD%E5%9B%BD</t>
@@ -3239,13 +3152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%9E</t>
   </si>
   <si>
-    <t>中國舞</t>
+    <t>中国舞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>中華人民共和國媒體</t>
+    <t>中华人民共和国媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E6%8A%A5%E7%BA%B8%E5%88%97%E8%A1%A8</t>
@@ -3257,7 +3170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國廣播電台列表</t>
+    <t>中国广播电台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%A7%86%E5%B9%BF%E6%92%AD</t>
@@ -3281,7 +3194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%85%92%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中國酒文化</t>
+    <t>中国酒文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%AD%E6%9E%97</t>
@@ -3293,13 +3206,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%9B%B8%E9%97%9C%E6%A2%9D%E7%9B%AE%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>中國相關條目索引</t>
+    <t>中国相关条目索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
 </sst>
 </file>
@@ -6135,7 +6048,7 @@
         <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -6161,10 +6074,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -6190,10 +6103,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -6219,10 +6132,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>10</v>
@@ -6248,10 +6161,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6277,10 +6190,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6306,10 +6219,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6335,10 +6248,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6364,10 +6277,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6393,10 +6306,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6422,10 +6335,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6451,10 +6364,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6480,10 +6393,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6509,10 +6422,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6538,10 +6451,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6567,10 +6480,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6596,10 +6509,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -6625,10 +6538,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -6654,10 +6567,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6683,10 +6596,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6712,10 +6625,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6741,10 +6654,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6770,10 +6683,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6799,10 +6712,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6828,10 +6741,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6857,10 +6770,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6886,10 +6799,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6915,10 +6828,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6944,10 +6857,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6973,10 +6886,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7002,10 +6915,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7031,10 +6944,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7060,10 +6973,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7089,10 +7002,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7118,10 +7031,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7147,10 +7060,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7176,10 +7089,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -7205,10 +7118,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7234,10 +7147,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7263,10 +7176,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7292,10 +7205,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7321,10 +7234,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7350,10 +7263,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7379,10 +7292,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7408,10 +7321,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7437,10 +7350,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -7466,10 +7379,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7495,10 +7408,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7524,10 +7437,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7553,10 +7466,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7582,10 +7495,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7611,10 +7524,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7640,10 +7553,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7669,10 +7582,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7698,10 +7611,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7727,10 +7640,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7756,10 +7669,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7785,10 +7698,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7814,10 +7727,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7843,10 +7756,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7872,10 +7785,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7901,10 +7814,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7930,10 +7843,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7959,10 +7872,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7988,10 +7901,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8017,10 +7930,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -8046,10 +7959,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8075,10 +7988,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8104,10 +8017,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8133,10 +8046,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8162,10 +8075,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8191,10 +8104,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8220,10 +8133,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8249,10 +8162,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8278,10 +8191,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8307,10 +8220,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8336,10 +8249,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8365,10 +8278,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8394,10 +8307,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8423,10 +8336,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8452,10 +8365,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8481,10 +8394,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8510,10 +8423,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8539,10 +8452,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8568,10 +8481,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8597,10 +8510,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8626,10 +8539,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8655,10 +8568,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8684,10 +8597,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8713,10 +8626,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8742,10 +8655,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8771,10 +8684,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8800,10 +8713,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8829,10 +8742,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8858,10 +8771,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8887,10 +8800,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8916,10 +8829,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8945,10 +8858,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8974,10 +8887,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9003,10 +8916,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9032,10 +8945,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9061,10 +8974,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9090,10 +9003,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9119,10 +9032,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9148,10 +9061,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9206,10 +9119,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9235,10 +9148,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9264,10 +9177,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9293,10 +9206,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -9322,10 +9235,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9351,10 +9264,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9380,10 +9293,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9409,10 +9322,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9438,10 +9351,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9467,10 +9380,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9496,10 +9409,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9525,10 +9438,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9554,10 +9467,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9583,10 +9496,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9612,10 +9525,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>184</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9641,10 +9554,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9670,10 +9583,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9699,10 +9612,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9728,10 +9641,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9757,10 +9670,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9786,10 +9699,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9815,10 +9728,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9844,10 +9757,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9873,10 +9786,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9902,10 +9815,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9931,10 +9844,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9960,10 +9873,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9989,10 +9902,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10018,10 +9931,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10047,10 +9960,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10076,10 +9989,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10105,10 +10018,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10134,10 +10047,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10163,10 +10076,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10192,10 +10105,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>186</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10221,10 +10134,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10250,10 +10163,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10279,10 +10192,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10308,10 +10221,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10337,10 +10250,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10366,10 +10279,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10395,10 +10308,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F233" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10424,10 +10337,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10453,10 +10366,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10482,10 +10395,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F236" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10511,10 +10424,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10540,10 +10453,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10569,10 +10482,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10598,10 +10511,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10627,10 +10540,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10656,10 +10569,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10685,10 +10598,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10714,10 +10627,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10743,10 +10656,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10772,10 +10685,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10801,10 +10714,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10830,10 +10743,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10859,10 +10772,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10888,10 +10801,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10917,10 +10830,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10946,10 +10859,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10975,10 +10888,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11004,10 +10917,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11033,10 +10946,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11062,10 +10975,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11091,10 +11004,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11120,10 +11033,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11149,10 +11062,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11178,10 +11091,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F260" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -11207,10 +11120,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11236,10 +11149,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11265,10 +11178,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11294,10 +11207,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11323,10 +11236,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11352,10 +11265,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11381,10 +11294,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11410,10 +11323,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11439,10 +11352,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11468,10 +11381,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11497,10 +11410,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11526,10 +11439,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11555,10 +11468,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11584,10 +11497,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11613,10 +11526,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F275" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11642,10 +11555,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11671,10 +11584,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11700,10 +11613,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11729,10 +11642,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11758,10 +11671,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11787,10 +11700,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11816,10 +11729,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11845,10 +11758,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F283" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11874,10 +11787,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11903,10 +11816,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11932,10 +11845,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11961,10 +11874,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>251</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11990,10 +11903,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -12019,10 +11932,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12048,10 +11961,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -12077,10 +11990,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12106,10 +12019,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12135,10 +12048,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12164,10 +12077,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12193,10 +12106,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12222,10 +12135,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12251,10 +12164,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12280,10 +12193,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>4</v>
@@ -12309,10 +12222,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>4</v>
@@ -12338,10 +12251,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12367,10 +12280,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12396,10 +12309,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12425,10 +12338,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12454,10 +12367,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12483,10 +12396,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12512,10 +12425,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>239</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12541,10 +12454,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12570,10 +12483,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>199</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12599,10 +12512,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12628,10 +12541,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F310" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12657,10 +12570,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>6</v>
@@ -12686,10 +12599,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12715,10 +12628,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12744,10 +12657,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12773,10 +12686,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12802,10 +12715,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12831,10 +12744,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F317" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12860,10 +12773,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12889,10 +12802,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F319" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12918,10 +12831,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12947,10 +12860,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12976,10 +12889,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F322" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13005,10 +12918,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13034,10 +12947,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13063,10 +12976,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13092,10 +13005,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F326" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13121,10 +13034,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -13150,10 +13063,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13179,10 +13092,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13208,10 +13121,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13237,10 +13150,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F331" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13266,10 +13179,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13295,10 +13208,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F333" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13324,10 +13237,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F334" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13353,10 +13266,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="G335" t="n">
         <v>3</v>
@@ -13382,10 +13295,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F336" t="s">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13411,10 +13324,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F337" t="s">
-        <v>636</v>
+        <v>219</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13440,10 +13353,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F338" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13469,10 +13382,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="F339" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13498,10 +13411,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F340" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13527,10 +13440,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F341" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13556,10 +13469,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F342" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -13585,10 +13498,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="F343" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="G343" t="n">
         <v>14</v>
@@ -13614,10 +13527,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="F344" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="G344" t="n">
         <v>14</v>
@@ -13643,10 +13556,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="F345" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="G345" t="n">
         <v>26</v>
@@ -13672,10 +13585,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="F346" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="G346" t="n">
         <v>19</v>
@@ -13701,10 +13614,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="F347" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="G347" t="n">
         <v>63</v>
@@ -13730,10 +13643,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="F348" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13759,10 +13672,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="F349" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13788,10 +13701,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="F350" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13817,10 +13730,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13846,10 +13759,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13875,10 +13788,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="F353" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13904,10 +13817,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="F354" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13933,10 +13846,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="F355" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13962,10 +13875,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="F356" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13991,10 +13904,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="F357" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14020,10 +13933,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F358" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14049,10 +13962,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="F359" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14078,10 +13991,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="F360" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14107,10 +14020,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14136,10 +14049,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="F362" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14165,10 +14078,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="F363" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14194,10 +14107,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F364" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14223,10 +14136,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14252,10 +14165,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14281,10 +14194,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="F367" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14310,10 +14223,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="F368" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14339,10 +14252,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F369" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14368,10 +14281,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="F370" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14397,10 +14310,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="F371" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14426,10 +14339,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="F372" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14455,10 +14368,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="F373" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14484,10 +14397,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="F374" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14513,10 +14426,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="F375" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14542,10 +14455,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="F376" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14571,10 +14484,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="F377" t="s">
-        <v>710</v>
+        <v>317</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14600,10 +14513,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F378" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14629,10 +14542,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="F379" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14658,10 +14571,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F380" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14687,10 +14600,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F381" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14716,10 +14629,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F382" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14745,10 +14658,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F383" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14774,10 +14687,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F384" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14803,10 +14716,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="F385" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14832,10 +14745,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F386" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14861,10 +14774,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F387" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14890,10 +14803,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F388" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14919,10 +14832,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F389" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14948,10 +14861,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F390" t="s">
-        <v>736</v>
+        <v>348</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14977,10 +14890,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F391" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15006,10 +14919,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F392" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15035,10 +14948,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F393" t="s">
-        <v>742</v>
+        <v>319</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15064,10 +14977,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="F394" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -15093,10 +15006,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="F395" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15122,10 +15035,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="F396" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15151,10 +15064,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="F397" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15180,10 +15093,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="F398" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15209,10 +15122,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="F399" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15238,10 +15151,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="F400" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15267,10 +15180,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="F401" t="s">
-        <v>758</v>
+        <v>352</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15296,10 +15209,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="F402" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15325,10 +15238,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="F403" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15354,10 +15267,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15383,10 +15296,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="F405" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15412,10 +15325,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="F406" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15441,10 +15354,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15470,10 +15383,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15499,10 +15412,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15528,10 +15441,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15557,10 +15470,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="F411" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15586,10 +15499,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15615,10 +15528,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="F413" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15644,10 +15557,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F414" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15673,10 +15586,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F415" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15702,10 +15615,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F416" t="s">
-        <v>782</v>
+        <v>364</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15731,10 +15644,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="F417" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15760,10 +15673,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="F418" t="s">
-        <v>786</v>
+        <v>281</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15789,10 +15702,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="F419" t="s">
-        <v>788</v>
+        <v>287</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15818,10 +15731,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="F420" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15847,10 +15760,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="F421" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15876,10 +15789,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="F422" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15905,10 +15818,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="F423" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15934,10 +15847,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="F424" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15963,10 +15876,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="F425" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15992,10 +15905,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="F426" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16021,10 +15934,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="F427" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16050,10 +15963,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F428" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16079,10 +15992,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="F429" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16108,10 +16021,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="F430" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16137,10 +16050,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16166,10 +16079,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="F432" t="s">
-        <v>812</v>
+        <v>308</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16195,10 +16108,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F433" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16224,10 +16137,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="F434" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16253,10 +16166,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="F435" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16282,10 +16195,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="F436" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16311,10 +16224,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="F437" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16340,10 +16253,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="F438" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16369,10 +16282,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="F439" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16398,10 +16311,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F440" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16427,10 +16340,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F441" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16456,10 +16369,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="F442" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16485,10 +16398,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="F443" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16514,10 +16427,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="F444" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16543,10 +16456,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F445" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16572,10 +16485,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="F446" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16601,10 +16514,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F447" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16630,10 +16543,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F448" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16659,10 +16572,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="F449" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16688,10 +16601,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="F450" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16717,10 +16630,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="F451" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16746,10 +16659,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F452" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16775,10 +16688,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16804,10 +16717,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16833,10 +16746,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="F455" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="G455" t="n">
         <v>6</v>
@@ -16862,10 +16775,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F456" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16891,10 +16804,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F457" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16920,10 +16833,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="F458" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="G458" t="n">
         <v>4</v>
@@ -16949,10 +16862,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="F459" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16978,10 +16891,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="F460" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17007,10 +16920,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="F461" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17036,10 +16949,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="F462" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17065,10 +16978,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="F463" t="s">
-        <v>864</v>
+        <v>3</v>
       </c>
       <c r="G463" t="n">
         <v>13</v>
@@ -17123,10 +17036,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
       <c r="F465" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17152,10 +17065,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>867</v>
+        <v>839</v>
       </c>
       <c r="F466" t="s">
-        <v>868</v>
+        <v>128</v>
       </c>
       <c r="G466" t="n">
         <v>3</v>
@@ -17210,10 +17123,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>869</v>
+        <v>840</v>
       </c>
       <c r="F468" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17239,10 +17152,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
       <c r="F469" t="s">
-        <v>872</v>
+        <v>843</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17268,10 +17181,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>873</v>
+        <v>844</v>
       </c>
       <c r="F470" t="s">
-        <v>874</v>
+        <v>845</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17297,10 +17210,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>875</v>
+        <v>846</v>
       </c>
       <c r="F471" t="s">
-        <v>876</v>
+        <v>847</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17326,10 +17239,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>877</v>
+        <v>848</v>
       </c>
       <c r="F472" t="s">
-        <v>878</v>
+        <v>849</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17355,10 +17268,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>879</v>
+        <v>850</v>
       </c>
       <c r="F473" t="s">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17384,10 +17297,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>881</v>
+        <v>852</v>
       </c>
       <c r="F474" t="s">
-        <v>882</v>
+        <v>853</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17413,10 +17326,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>883</v>
+        <v>854</v>
       </c>
       <c r="F475" t="s">
-        <v>884</v>
+        <v>855</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17442,10 +17355,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>885</v>
+        <v>856</v>
       </c>
       <c r="F476" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17471,10 +17384,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="F477" t="s">
-        <v>888</v>
+        <v>859</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17500,10 +17413,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>889</v>
+        <v>860</v>
       </c>
       <c r="F478" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17529,10 +17442,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="F479" t="s">
-        <v>892</v>
+        <v>863</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17558,10 +17471,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>893</v>
+        <v>864</v>
       </c>
       <c r="F480" t="s">
-        <v>894</v>
+        <v>865</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17587,10 +17500,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
       <c r="F481" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17616,10 +17529,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>897</v>
+        <v>868</v>
       </c>
       <c r="F482" t="s">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17645,10 +17558,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="F483" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17674,10 +17587,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>901</v>
+        <v>872</v>
       </c>
       <c r="F484" t="s">
-        <v>902</v>
+        <v>873</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17703,10 +17616,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="F485" t="s">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17732,10 +17645,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="F486" t="s">
-        <v>906</v>
+        <v>877</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17761,10 +17674,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="F487" t="s">
-        <v>908</v>
+        <v>879</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17790,10 +17703,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>909</v>
+        <v>880</v>
       </c>
       <c r="F488" t="s">
-        <v>910</v>
+        <v>881</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17819,10 +17732,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>911</v>
+        <v>882</v>
       </c>
       <c r="F489" t="s">
-        <v>912</v>
+        <v>883</v>
       </c>
       <c r="G489" t="n">
         <v>4</v>
@@ -17848,10 +17761,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>913</v>
+        <v>884</v>
       </c>
       <c r="F490" t="s">
-        <v>914</v>
+        <v>885</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -17906,10 +17819,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>915</v>
+        <v>886</v>
       </c>
       <c r="F492" t="s">
-        <v>916</v>
+        <v>887</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17935,10 +17848,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>917</v>
+        <v>888</v>
       </c>
       <c r="F493" t="s">
-        <v>918</v>
+        <v>889</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17964,10 +17877,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>919</v>
+        <v>890</v>
       </c>
       <c r="F494" t="s">
-        <v>920</v>
+        <v>891</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17993,10 +17906,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>921</v>
+        <v>892</v>
       </c>
       <c r="F495" t="s">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18022,10 +17935,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="F496" t="s">
-        <v>924</v>
+        <v>895</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18051,10 +17964,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="F497" t="s">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18080,10 +17993,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="F498" t="s">
-        <v>928</v>
+        <v>899</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18109,10 +18022,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>929</v>
+        <v>900</v>
       </c>
       <c r="F499" t="s">
-        <v>930</v>
+        <v>901</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18138,10 +18051,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>931</v>
+        <v>902</v>
       </c>
       <c r="F500" t="s">
-        <v>932</v>
+        <v>903</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18167,10 +18080,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="F501" t="s">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18196,10 +18109,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
       <c r="F502" t="s">
-        <v>936</v>
+        <v>907</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18225,10 +18138,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>937</v>
+        <v>908</v>
       </c>
       <c r="F503" t="s">
-        <v>938</v>
+        <v>909</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18254,10 +18167,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="F504" t="s">
-        <v>940</v>
+        <v>911</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18283,10 +18196,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
       <c r="F505" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18312,10 +18225,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>943</v>
+        <v>914</v>
       </c>
       <c r="F506" t="s">
-        <v>944</v>
+        <v>915</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18341,10 +18254,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>945</v>
+        <v>916</v>
       </c>
       <c r="F507" t="s">
-        <v>946</v>
+        <v>917</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18370,10 +18283,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>947</v>
+        <v>918</v>
       </c>
       <c r="F508" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18399,10 +18312,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="F509" t="s">
-        <v>950</v>
+        <v>921</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18428,10 +18341,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>951</v>
+        <v>922</v>
       </c>
       <c r="F510" t="s">
-        <v>952</v>
+        <v>923</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18457,10 +18370,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>953</v>
+        <v>924</v>
       </c>
       <c r="F511" t="s">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18486,10 +18399,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="F512" t="s">
-        <v>956</v>
+        <v>927</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18515,10 +18428,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="F513" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18544,10 +18457,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="F514" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18573,10 +18486,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
       <c r="F515" t="s">
-        <v>962</v>
+        <v>933</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18631,10 +18544,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>963</v>
+        <v>934</v>
       </c>
       <c r="F517" t="s">
-        <v>964</v>
+        <v>935</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18660,10 +18573,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
       <c r="F518" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18689,10 +18602,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="F519" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18718,10 +18631,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
       <c r="F520" t="s">
-        <v>970</v>
+        <v>941</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18747,10 +18660,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
       <c r="F521" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18776,10 +18689,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
       <c r="F522" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -18805,10 +18718,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="F523" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18834,10 +18747,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="F524" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18863,10 +18776,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="F525" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18892,10 +18805,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F526" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18921,10 +18834,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="F527" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18950,10 +18863,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
       <c r="F528" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18979,10 +18892,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="F529" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19008,10 +18921,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="F530" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19037,10 +18950,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="F531" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19066,10 +18979,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="F532" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19095,10 +19008,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="F533" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19124,10 +19037,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="F534" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19153,10 +19066,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="F535" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19182,10 +19095,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="F536" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19211,10 +19124,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="F537" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19240,10 +19153,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="F538" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19269,10 +19182,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="F539" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19298,10 +19211,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="F540" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19327,10 +19240,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="F541" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19356,10 +19269,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="F542" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19385,10 +19298,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="F543" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="G543" t="n">
         <v>9</v>
@@ -19414,10 +19327,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="F544" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19443,10 +19356,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
       <c r="F545" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19472,10 +19385,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="F546" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19501,10 +19414,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
       <c r="F547" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="G547" t="n">
         <v>2</v>
@@ -19530,10 +19443,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="F548" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="G548" t="n">
         <v>9</v>
@@ -19559,10 +19472,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="F549" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19588,10 +19501,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="F550" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19617,10 +19530,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="F551" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19646,10 +19559,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="F552" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="G552" t="n">
         <v>4</v>
@@ -19675,10 +19588,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="F553" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19704,10 +19617,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="F554" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19733,10 +19646,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="F555" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19762,10 +19675,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="F556" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19791,10 +19704,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="F557" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19820,10 +19733,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="F558" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19849,10 +19762,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="F559" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19878,10 +19791,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="F560" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19907,10 +19820,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="F561" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19936,10 +19849,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="F562" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19965,10 +19878,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="F563" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19994,10 +19907,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="F564" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20023,10 +19936,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="F565" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20052,10 +19965,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="F566" t="s">
-        <v>1062</v>
+        <v>1033</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20081,10 +19994,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="F567" t="s">
-        <v>1064</v>
+        <v>1035</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20110,10 +20023,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
       <c r="F568" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20139,10 +20052,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="F569" t="s">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20197,10 +20110,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="F571" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20226,10 +20139,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="F572" t="s">
-        <v>1072</v>
+        <v>1043</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20284,10 +20197,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1073</v>
+        <v>1044</v>
       </c>
       <c r="F574" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20342,10 +20255,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
       <c r="F576" t="s">
-        <v>1076</v>
+        <v>1047</v>
       </c>
       <c r="G576" t="n">
         <v>4</v>
@@ -20371,10 +20284,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
       <c r="F577" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20400,10 +20313,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1079</v>
+        <v>1050</v>
       </c>
       <c r="F578" t="s">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20429,10 +20342,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="F579" t="s">
-        <v>1082</v>
+        <v>1053</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20458,10 +20371,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="F580" t="s">
-        <v>1084</v>
+        <v>1055</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20487,10 +20400,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
       <c r="F581" t="s">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20516,10 +20429,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1087</v>
+        <v>1058</v>
       </c>
       <c r="F582" t="s">
-        <v>1088</v>
+        <v>1059</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20574,10 +20487,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1089</v>
+        <v>1060</v>
       </c>
       <c r="F584" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20603,10 +20516,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
       <c r="F585" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
       <c r="G585" t="n">
         <v>2</v>
@@ -20632,10 +20545,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1093</v>
+        <v>1064</v>
       </c>
       <c r="F586" t="s">
-        <v>1094</v>
+        <v>1065</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
